--- a/spAts members details.xlsx
+++ b/spAts members details.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="9405" activeTab="2"/>
+    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="9405" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="S. Com" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="211">
   <si>
     <t>Name</t>
   </si>
@@ -646,13 +646,16 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1HX6BlvUGdT4zrvxOV5ROfQiuJVmROjHc/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1C7kmUa6NGA_Hll3BWwG3baPtAag59fUI/view?usp=sharing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -686,6 +689,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -710,10 +719,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -724,8 +734,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1003,9 +1015,9 @@
   </sheetPr>
   <dimension ref="A1:AB12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1114,6 +1126,9 @@
       <c r="G3" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="H3" s="8" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -1137,6 +1152,9 @@
       <c r="G4" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="H4" s="8" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -1157,6 +1175,9 @@
       <c r="F5" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="H5" s="8" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
@@ -1180,6 +1201,9 @@
       <c r="G6" s="4" t="s">
         <v>37</v>
       </c>
+      <c r="H6" s="8" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
@@ -1203,6 +1227,9 @@
       <c r="G7" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="H7" s="8" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
@@ -1275,6 +1302,9 @@
       <c r="F10" s="4" t="s">
         <v>61</v>
       </c>
+      <c r="H10" s="8" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
@@ -1298,6 +1328,9 @@
       <c r="G11" s="4" t="s">
         <v>66</v>
       </c>
+      <c r="H11" s="8" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
@@ -1320,6 +1353,9 @@
       </c>
       <c r="G12" s="4" t="s">
         <v>72</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -1338,15 +1374,19 @@
     <hyperlink ref="G7" r:id="rId12"/>
     <hyperlink ref="F8" r:id="rId13"/>
     <hyperlink ref="G8" r:id="rId14"/>
-    <hyperlink ref="H8" r:id="rId15"/>
-    <hyperlink ref="F9" r:id="rId16"/>
-    <hyperlink ref="G9" r:id="rId17"/>
-    <hyperlink ref="H9" r:id="rId18"/>
-    <hyperlink ref="F10" r:id="rId19"/>
-    <hyperlink ref="F11" r:id="rId20"/>
-    <hyperlink ref="G11" r:id="rId21"/>
-    <hyperlink ref="F12" r:id="rId22"/>
-    <hyperlink ref="G12" r:id="rId23"/>
+    <hyperlink ref="F9" r:id="rId15"/>
+    <hyperlink ref="G9" r:id="rId16"/>
+    <hyperlink ref="F10" r:id="rId17"/>
+    <hyperlink ref="F11" r:id="rId18"/>
+    <hyperlink ref="G11" r:id="rId19"/>
+    <hyperlink ref="F12" r:id="rId20"/>
+    <hyperlink ref="G12" r:id="rId21"/>
+    <hyperlink ref="H9" r:id="rId22"/>
+    <hyperlink ref="H8" r:id="rId23"/>
+    <hyperlink ref="H3" r:id="rId24"/>
+    <hyperlink ref="H4:H7" r:id="rId25" display="https://drive.google.com/file/d/1C7kmUa6NGA_Hll3BWwG3baPtAag59fUI/view?usp=sharing"/>
+    <hyperlink ref="H10" r:id="rId26"/>
+    <hyperlink ref="H11:H12" r:id="rId27" display="https://drive.google.com/file/d/1C7kmUa6NGA_Hll3BWwG3baPtAag59fUI/view?usp=sharing"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1359,7 +1399,7 @@
   </sheetPr>
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>

--- a/spAts members details.xlsx
+++ b/spAts members details.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="222">
   <si>
     <t>Name</t>
   </si>
@@ -262,9 +262,6 @@
   </si>
   <si>
     <t>https://www.linkedin.com/in/aditya-jerath-06b4531a2/</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1C0vttqhafBxpyYgCa0x5KiSeAHx9ur4u/view?usp=sharing</t>
   </si>
   <si>
     <t>Amritakshya Purkayastha</t>
@@ -528,9 +525,6 @@
     <t>https://www.linkedin.com/in/suryadeep-mandal-3445101b4/</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1rhKPwWsLKz-9rpoT7U2799LWmpUoXtJe/view?usp=sharing</t>
-  </si>
-  <si>
     <t>Tanish Pratap Singh Chouhan</t>
   </si>
   <si>
@@ -642,13 +636,7 @@
     <t>https://drive.google.com/file/d/1v_coChDCYCD6bJm_ElILeeLAt_QvDIN9/view?usp=drivesdk</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1c9Orf4AGJH47_hUgr3Jw2s7OPjAsKU15/view?usp=drivesdk</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/1-GcPxMCBezCnyMsdM36fhWru_BSA0_8W/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1g2RrNXA-W4KDZ_8jKms2Pksj42KLdtmN/view?usp=drivesdk</t>
   </si>
   <si>
     <t>Industrial and Systems Engineering</t>
@@ -675,10 +663,25 @@
     <t>Agricultural and food engineering</t>
   </si>
   <si>
-    <t>https://scontent.fbho3-1.fna.fbcdn.net/v/t1.0-9/82474874_160114075320572_6528339784429993984_n.jpg?_nc_cat=108&amp;_nc_sid=8bfeb9&amp;_nc_ohc=VSYckXKNR6oAX8FMBZD&amp;_nc_ht=scontent.fbho3-1.fna&amp;oh=f0152cf02bbc6922cbd84c9a9ffcad61&amp;oe=5F69FAD4</t>
+    <t>Humanities and Social Sciences</t>
   </si>
   <si>
-    <t>Humanities and Social Sciences</t>
+    <t>https://drive.google.com/file/d/15gkFk_neTHsWWm-wMaJDi5Os2m8CeT5K/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/16SXec-K9FlPVV3DcFPF2KOEQe0OguKYp/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ee6CKuGzCfZsSDWgB1YI8QFvyEq9Ffy9/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1OMNCn5XN5WrfYVD8i8vy2T-Pn8sMA3F-/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1HFACUa5Xh3sYXfEuHnCXC4mCbUkpij5H/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1gkYa13cz_uXXR_fDCkUUh0mRm2C6SYyW/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1080,7 @@
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1187,7 +1190,7 @@
         <v>20</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
@@ -1213,7 +1216,7 @@
         <v>26</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
@@ -1236,7 +1239,7 @@
         <v>31</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
@@ -1262,7 +1265,7 @@
         <v>37</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
@@ -1288,7 +1291,7 @@
         <v>43</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
@@ -1363,7 +1366,7 @@
         <v>61</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
@@ -1389,7 +1392,7 @@
         <v>66</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
@@ -1415,7 +1418,7 @@
         <v>72</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -1460,8 +1463,8 @@
   <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1518,7 +1521,7 @@
       <c r="Z1" s="6"/>
       <c r="AA1" s="6"/>
     </row>
-    <row r="2" spans="1:27" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>73</v>
       </c>
@@ -1581,7 +1584,7 @@
         <v>81</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>82</v>
+        <v>216</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -1606,25 +1609,25 @@
     </row>
     <row r="4" spans="1:27" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D4" s="7">
         <v>8811869007</v>
       </c>
       <c r="E4" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>86</v>
-      </c>
       <c r="G4" s="8" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -1649,23 +1652,23 @@
     </row>
     <row r="5" spans="1:27" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5" s="7">
         <v>9660453903</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="8" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -1690,25 +1693,25 @@
     </row>
     <row r="6" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D6" s="7">
         <v>9358361594</v>
       </c>
       <c r="E6" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>94</v>
-      </c>
       <c r="G6" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -1733,25 +1736,25 @@
     </row>
     <row r="7" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D7" s="7">
         <v>9502834599</v>
       </c>
       <c r="E7" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>197</v>
+      <c r="G7" s="8" t="s">
+        <v>218</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -1776,25 +1779,25 @@
     </row>
     <row r="8" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D8" s="7">
         <v>9500327733</v>
       </c>
       <c r="E8" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>103</v>
-      </c>
       <c r="G8" s="8" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -1819,25 +1822,25 @@
     </row>
     <row r="9" spans="1:27" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D9" s="7">
         <v>9030991777</v>
       </c>
       <c r="E9" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="G9" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>108</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -1862,25 +1865,25 @@
     </row>
     <row r="10" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>51</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D10" s="7">
         <v>8590409920</v>
       </c>
       <c r="E10" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="G10" s="11" t="s">
         <v>112</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>113</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -1905,25 +1908,25 @@
     </row>
     <row r="11" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D11" s="7">
         <v>7076195222</v>
       </c>
       <c r="E11" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>117</v>
-      </c>
       <c r="G11" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -1948,25 +1951,25 @@
     </row>
     <row r="12" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D12" s="7">
         <v>9550198600</v>
       </c>
       <c r="E12" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>122</v>
-      </c>
       <c r="G12" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -1991,25 +1994,25 @@
     </row>
     <row r="13" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D13" s="7">
         <v>7034877530</v>
       </c>
       <c r="E13" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>127</v>
-      </c>
       <c r="G13" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -2034,23 +2037,23 @@
     </row>
     <row r="14" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D14" s="7">
         <v>6381729525</v>
       </c>
       <c r="E14" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>132</v>
-      </c>
       <c r="G14" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -2075,25 +2078,25 @@
     </row>
     <row r="15" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D15" s="7">
         <v>8462890029</v>
       </c>
       <c r="E15" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>136</v>
-      </c>
       <c r="G15" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -2118,25 +2121,25 @@
     </row>
     <row r="16" spans="1:27" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D16" s="7">
         <v>9390180656</v>
       </c>
       <c r="E16" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="G16" s="8" t="s">
         <v>140</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>141</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -2161,25 +2164,25 @@
     </row>
     <row r="17" spans="1:27" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D17" s="7">
         <v>8368297396</v>
       </c>
       <c r="E17" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>145</v>
-      </c>
       <c r="G17" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -2204,25 +2207,25 @@
     </row>
     <row r="18" spans="1:27" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D18" s="7">
         <v>7584837111</v>
       </c>
       <c r="E18" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="F18" s="8" t="s">
-        <v>151</v>
-      </c>
       <c r="G18" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -2247,25 +2250,25 @@
     </row>
     <row r="19" spans="1:27" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C19" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="E19" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="F19" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="F19" s="8" t="s">
-        <v>156</v>
-      </c>
       <c r="G19" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
@@ -2290,25 +2293,25 @@
     </row>
     <row r="20" spans="1:27" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D20" s="7">
         <v>9693468208</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -2331,27 +2334,27 @@
       <c r="Z20" s="6"/>
       <c r="AA20" s="6"/>
     </row>
-    <row r="21" spans="1:27" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D21" s="7">
         <v>9284029278</v>
       </c>
       <c r="E21" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="F21" s="8" t="s">
-        <v>164</v>
-      </c>
       <c r="G21" s="8" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
@@ -2376,25 +2379,25 @@
     </row>
     <row r="22" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D22" s="7">
         <v>8698792882</v>
       </c>
       <c r="E22" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="F22" s="8" t="s">
-        <v>169</v>
-      </c>
       <c r="G22" s="8" t="s">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
@@ -2419,25 +2422,25 @@
     </row>
     <row r="23" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D23" s="7">
         <v>7479175747</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
@@ -2462,25 +2465,25 @@
     </row>
     <row r="24" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D24" s="7">
         <v>9352025031</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -2505,25 +2508,25 @@
     </row>
     <row r="25" spans="1:27" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D25" s="7">
         <v>9150660724</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
@@ -2546,27 +2549,27 @@
       <c r="Z25" s="6"/>
       <c r="AA25" s="6"/>
     </row>
-    <row r="26" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D26" s="7">
         <v>7479221800</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
-      <c r="G26" s="11" t="s">
-        <v>219</v>
+      <c r="G26" s="8" t="s">
+        <v>221</v>
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -2591,25 +2594,25 @@
     </row>
     <row r="27" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D27" s="7">
         <v>7580874791</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
@@ -2634,25 +2637,25 @@
     </row>
     <row r="28" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D28" s="7">
         <v>8490082541</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -2677,25 +2680,25 @@
     </row>
     <row r="29" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D29" s="7">
         <v>9961751470</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
@@ -2720,25 +2723,25 @@
     </row>
     <row r="30" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D30" s="7">
         <v>9672030996</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
@@ -30895,89 +30898,92 @@
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
     <hyperlink ref="F2" r:id="rId2"/>
-    <hyperlink ref="G2" r:id="rId3"/>
-    <hyperlink ref="E3" r:id="rId4"/>
-    <hyperlink ref="F3" r:id="rId5"/>
-    <hyperlink ref="G3" r:id="rId6"/>
-    <hyperlink ref="E4" r:id="rId7"/>
-    <hyperlink ref="F4" r:id="rId8"/>
-    <hyperlink ref="G4" r:id="rId9"/>
-    <hyperlink ref="E5" r:id="rId10"/>
-    <hyperlink ref="G5" r:id="rId11"/>
-    <hyperlink ref="E6" r:id="rId12"/>
-    <hyperlink ref="F6" r:id="rId13"/>
-    <hyperlink ref="E7" r:id="rId14"/>
-    <hyperlink ref="F7" r:id="rId15"/>
-    <hyperlink ref="E8" r:id="rId16"/>
-    <hyperlink ref="F8" r:id="rId17"/>
-    <hyperlink ref="G8" r:id="rId18"/>
-    <hyperlink ref="E9" r:id="rId19"/>
-    <hyperlink ref="F9" r:id="rId20"/>
-    <hyperlink ref="G9" r:id="rId21"/>
-    <hyperlink ref="E10" r:id="rId22"/>
-    <hyperlink ref="F10" r:id="rId23"/>
-    <hyperlink ref="G10" r:id="rId24"/>
-    <hyperlink ref="E11" r:id="rId25"/>
-    <hyperlink ref="F11" r:id="rId26"/>
-    <hyperlink ref="E12" r:id="rId27"/>
-    <hyperlink ref="F12" r:id="rId28"/>
-    <hyperlink ref="E13" r:id="rId29"/>
-    <hyperlink ref="F13" r:id="rId30"/>
-    <hyperlink ref="E14" r:id="rId31"/>
-    <hyperlink ref="F14" r:id="rId32"/>
-    <hyperlink ref="E15" r:id="rId33"/>
-    <hyperlink ref="F15" r:id="rId34"/>
-    <hyperlink ref="E16" r:id="rId35"/>
-    <hyperlink ref="F16" r:id="rId36"/>
-    <hyperlink ref="G16" r:id="rId37"/>
-    <hyperlink ref="E17" r:id="rId38"/>
-    <hyperlink ref="F17" r:id="rId39"/>
-    <hyperlink ref="G17" r:id="rId40"/>
-    <hyperlink ref="E18" r:id="rId41"/>
-    <hyperlink ref="F18" r:id="rId42"/>
-    <hyperlink ref="E19" r:id="rId43"/>
-    <hyperlink ref="F19" r:id="rId44"/>
-    <hyperlink ref="E20" r:id="rId45"/>
-    <hyperlink ref="F20" r:id="rId46"/>
-    <hyperlink ref="G20" r:id="rId47"/>
-    <hyperlink ref="E21" r:id="rId48"/>
-    <hyperlink ref="F21" r:id="rId49"/>
-    <hyperlink ref="G21" r:id="rId50"/>
-    <hyperlink ref="E22" r:id="rId51"/>
-    <hyperlink ref="F22" r:id="rId52"/>
-    <hyperlink ref="G22" r:id="rId53"/>
-    <hyperlink ref="E23" r:id="rId54"/>
-    <hyperlink ref="F23" r:id="rId55"/>
-    <hyperlink ref="E24" r:id="rId56"/>
-    <hyperlink ref="F24" r:id="rId57"/>
-    <hyperlink ref="G24" r:id="rId58"/>
-    <hyperlink ref="E25" r:id="rId59"/>
-    <hyperlink ref="F25" r:id="rId60"/>
-    <hyperlink ref="G25" r:id="rId61"/>
-    <hyperlink ref="E26" r:id="rId62"/>
-    <hyperlink ref="F26" r:id="rId63"/>
-    <hyperlink ref="G26" r:id="rId64"/>
-    <hyperlink ref="E27" r:id="rId65"/>
-    <hyperlink ref="F27" r:id="rId66"/>
-    <hyperlink ref="E28" r:id="rId67"/>
-    <hyperlink ref="F28" r:id="rId68"/>
-    <hyperlink ref="G28" r:id="rId69"/>
-    <hyperlink ref="E29" r:id="rId70"/>
-    <hyperlink ref="F29" r:id="rId71"/>
-    <hyperlink ref="G29" r:id="rId72"/>
-    <hyperlink ref="E30" r:id="rId73"/>
-    <hyperlink ref="F30" r:id="rId74"/>
-    <hyperlink ref="G30" r:id="rId75"/>
-    <hyperlink ref="G6" r:id="rId76"/>
-    <hyperlink ref="G7" r:id="rId77"/>
+    <hyperlink ref="E3" r:id="rId3"/>
+    <hyperlink ref="F3" r:id="rId4"/>
+    <hyperlink ref="E4" r:id="rId5"/>
+    <hyperlink ref="F4" r:id="rId6"/>
+    <hyperlink ref="E5" r:id="rId7"/>
+    <hyperlink ref="E6" r:id="rId8"/>
+    <hyperlink ref="F6" r:id="rId9"/>
+    <hyperlink ref="E7" r:id="rId10"/>
+    <hyperlink ref="F7" r:id="rId11"/>
+    <hyperlink ref="E8" r:id="rId12"/>
+    <hyperlink ref="F8" r:id="rId13"/>
+    <hyperlink ref="E9" r:id="rId14"/>
+    <hyperlink ref="F9" r:id="rId15"/>
+    <hyperlink ref="E10" r:id="rId16"/>
+    <hyperlink ref="F10" r:id="rId17"/>
+    <hyperlink ref="E11" r:id="rId18"/>
+    <hyperlink ref="F11" r:id="rId19"/>
+    <hyperlink ref="E12" r:id="rId20"/>
+    <hyperlink ref="F12" r:id="rId21"/>
+    <hyperlink ref="E13" r:id="rId22"/>
+    <hyperlink ref="F13" r:id="rId23"/>
+    <hyperlink ref="E14" r:id="rId24"/>
+    <hyperlink ref="F14" r:id="rId25"/>
+    <hyperlink ref="E15" r:id="rId26"/>
+    <hyperlink ref="F15" r:id="rId27"/>
+    <hyperlink ref="E16" r:id="rId28"/>
+    <hyperlink ref="F16" r:id="rId29"/>
+    <hyperlink ref="E17" r:id="rId30"/>
+    <hyperlink ref="F17" r:id="rId31"/>
+    <hyperlink ref="E18" r:id="rId32"/>
+    <hyperlink ref="F18" r:id="rId33"/>
+    <hyperlink ref="E19" r:id="rId34"/>
+    <hyperlink ref="F19" r:id="rId35"/>
+    <hyperlink ref="E20" r:id="rId36"/>
+    <hyperlink ref="F20" r:id="rId37"/>
+    <hyperlink ref="E21" r:id="rId38"/>
+    <hyperlink ref="F21" r:id="rId39"/>
+    <hyperlink ref="E22" r:id="rId40"/>
+    <hyperlink ref="F22" r:id="rId41"/>
+    <hyperlink ref="E23" r:id="rId42"/>
+    <hyperlink ref="F23" r:id="rId43"/>
+    <hyperlink ref="E24" r:id="rId44"/>
+    <hyperlink ref="F24" r:id="rId45"/>
+    <hyperlink ref="E25" r:id="rId46"/>
+    <hyperlink ref="F25" r:id="rId47"/>
+    <hyperlink ref="E26" r:id="rId48"/>
+    <hyperlink ref="F26" r:id="rId49"/>
+    <hyperlink ref="E27" r:id="rId50"/>
+    <hyperlink ref="F27" r:id="rId51"/>
+    <hyperlink ref="E28" r:id="rId52"/>
+    <hyperlink ref="F28" r:id="rId53"/>
+    <hyperlink ref="E29" r:id="rId54"/>
+    <hyperlink ref="F29" r:id="rId55"/>
+    <hyperlink ref="E30" r:id="rId56"/>
+    <hyperlink ref="F30" r:id="rId57"/>
+    <hyperlink ref="G2" r:id="rId58"/>
+    <hyperlink ref="G3" r:id="rId59"/>
+    <hyperlink ref="G4" r:id="rId60"/>
+    <hyperlink ref="G5" r:id="rId61"/>
+    <hyperlink ref="G7" r:id="rId62"/>
+    <hyperlink ref="G8" r:id="rId63"/>
+    <hyperlink ref="G9" r:id="rId64"/>
+    <hyperlink ref="G10" r:id="rId65"/>
+    <hyperlink ref="G16" r:id="rId66"/>
+    <hyperlink ref="G17" r:id="rId67"/>
+    <hyperlink ref="G20" r:id="rId68"/>
+    <hyperlink ref="G21" r:id="rId69"/>
+    <hyperlink ref="G22" r:id="rId70"/>
+    <hyperlink ref="G24" r:id="rId71"/>
+    <hyperlink ref="G25" r:id="rId72"/>
+    <hyperlink ref="G26" r:id="rId73"/>
+    <hyperlink ref="G28" r:id="rId74"/>
+    <hyperlink ref="G29" r:id="rId75"/>
+    <hyperlink ref="G30" r:id="rId76"/>
+    <hyperlink ref="G6" r:id="rId77"/>
     <hyperlink ref="G11" r:id="rId78"/>
-    <hyperlink ref="G12:G15" r:id="rId79" display="https://drive.google.com/file/d/1C7kmUa6NGA_Hll3BWwG3baPtAag59fUI/view?usp=sharing"/>
-    <hyperlink ref="G18" r:id="rId80"/>
-    <hyperlink ref="G19" r:id="rId81"/>
-    <hyperlink ref="G23" r:id="rId82"/>
-    <hyperlink ref="G27" r:id="rId83"/>
+    <hyperlink ref="G12" r:id="rId79"/>
+    <hyperlink ref="G13" r:id="rId80"/>
+    <hyperlink ref="G15" r:id="rId81"/>
+    <hyperlink ref="G14" r:id="rId82"/>
+    <hyperlink ref="G18" r:id="rId83"/>
+    <hyperlink ref="G19" r:id="rId84"/>
+    <hyperlink ref="G23" r:id="rId85"/>
+    <hyperlink ref="G27" r:id="rId86"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId84"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId87"/>
 </worksheet>
 </file>
--- a/spAts members details.xlsx
+++ b/spAts members details.xlsx
@@ -666,22 +666,22 @@
     <t>Humanities and Social Sciences</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/15gkFk_neTHsWWm-wMaJDi5Os2m8CeT5K/view?usp=sharing</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/16SXec-K9FlPVV3DcFPF2KOEQe0OguKYp/view?usp=sharing</t>
   </si>
   <si>
     <t>https://drive.google.com/file/d/1ee6CKuGzCfZsSDWgB1YI8QFvyEq9Ffy9/view?usp=drivesdk</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1OMNCn5XN5WrfYVD8i8vy2T-Pn8sMA3F-/view?usp=sharing</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/1HFACUa5Xh3sYXfEuHnCXC4mCbUkpij5H/view?usp=sharing</t>
   </si>
   <si>
     <t>https://drive.google.com/file/d/1gkYa13cz_uXXR_fDCkUUh0mRm2C6SYyW/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1fEXKKb54u9JV4lkociYZQ1tgPsXAPzD2/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/13vBsQ4eWYlB30cxKnP5QNB-skUSlZkoJ/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1080,7 @@
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1464,7 +1464,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
+      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1584,7 +1584,7 @@
         <v>81</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -1627,7 +1627,7 @@
         <v>85</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -1754,7 +1754,7 @@
         <v>97</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -1797,7 +1797,7 @@
         <v>102</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -2397,7 +2397,7 @@
         <v>168</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
@@ -2569,7 +2569,7 @@
         <v>185</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -30974,16 +30974,13 @@
     <hyperlink ref="G30" r:id="rId76"/>
     <hyperlink ref="G6" r:id="rId77"/>
     <hyperlink ref="G11" r:id="rId78"/>
-    <hyperlink ref="G12" r:id="rId79"/>
-    <hyperlink ref="G13" r:id="rId80"/>
-    <hyperlink ref="G15" r:id="rId81"/>
-    <hyperlink ref="G14" r:id="rId82"/>
-    <hyperlink ref="G18" r:id="rId83"/>
-    <hyperlink ref="G19" r:id="rId84"/>
-    <hyperlink ref="G23" r:id="rId85"/>
-    <hyperlink ref="G27" r:id="rId86"/>
+    <hyperlink ref="G12:G15" r:id="rId79" display="https://drive.google.com/file/d/1C7kmUa6NGA_Hll3BWwG3baPtAag59fUI/view?usp=sharing"/>
+    <hyperlink ref="G18" r:id="rId80"/>
+    <hyperlink ref="G19" r:id="rId81"/>
+    <hyperlink ref="G23" r:id="rId82"/>
+    <hyperlink ref="G27" r:id="rId83"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId87"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId84"/>
 </worksheet>
 </file>
--- a/spAts members details.xlsx
+++ b/spAts members details.xlsx
@@ -1462,9 +1462,9 @@
   </sheetPr>
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
+      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/spAts members details.xlsx
+++ b/spAts members details.xlsx
@@ -675,13 +675,13 @@
     <t>https://drive.google.com/file/d/1HFACUa5Xh3sYXfEuHnCXC4mCbUkpij5H/view?usp=sharing</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1gkYa13cz_uXXR_fDCkUUh0mRm2C6SYyW/view?usp=sharing</t>
+    <t>https://drive.google.com/file/d/13vBsQ4eWYlB30cxKnP5QNB-skUSlZkoJ/view?usp=sharing</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1fEXKKb54u9JV4lkociYZQ1tgPsXAPzD2/view?usp=sharing</t>
+    <t>https://drive.google.com/file/d/1EXiUqdfCbP8k3f_pmskxJhx_bXXDZ_aZ/view?usp=sharing</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/13vBsQ4eWYlB30cxKnP5QNB-skUSlZkoJ/view?usp=sharing</t>
+    <t>https://drive.google.com/file/d/1M7D49zgPw-YU109Mrq3Nwv-qZyYk1yMR/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -731,7 +731,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -741,6 +741,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,7 +779,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -797,6 +803,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1464,7 +1473,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
+      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1586,7 +1595,7 @@
       <c r="G3" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="H3" s="6"/>
+      <c r="H3" s="12"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -1797,9 +1806,9 @@
         <v>102</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
-      <c r="H8" s="6"/>
+      <c r="H8" s="12"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
@@ -2399,7 +2408,7 @@
       <c r="G22" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="H22" s="6"/>
+      <c r="H22" s="12"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
@@ -2549,7 +2558,7 @@
       <c r="Z25" s="6"/>
       <c r="AA25" s="6"/>
     </row>
-    <row r="26" spans="1:27" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>182</v>
       </c>
@@ -2569,9 +2578,9 @@
         <v>185</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
-      <c r="H26" s="6"/>
+      <c r="H26" s="12"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
@@ -30954,33 +30963,31 @@
     <hyperlink ref="E30" r:id="rId56"/>
     <hyperlink ref="F30" r:id="rId57"/>
     <hyperlink ref="G2" r:id="rId58"/>
-    <hyperlink ref="G3" r:id="rId59"/>
-    <hyperlink ref="G4" r:id="rId60"/>
-    <hyperlink ref="G5" r:id="rId61"/>
-    <hyperlink ref="G7" r:id="rId62"/>
-    <hyperlink ref="G8" r:id="rId63"/>
-    <hyperlink ref="G9" r:id="rId64"/>
-    <hyperlink ref="G10" r:id="rId65"/>
-    <hyperlink ref="G16" r:id="rId66"/>
-    <hyperlink ref="G17" r:id="rId67"/>
-    <hyperlink ref="G20" r:id="rId68"/>
-    <hyperlink ref="G21" r:id="rId69"/>
-    <hyperlink ref="G22" r:id="rId70"/>
-    <hyperlink ref="G24" r:id="rId71"/>
-    <hyperlink ref="G25" r:id="rId72"/>
-    <hyperlink ref="G26" r:id="rId73"/>
-    <hyperlink ref="G28" r:id="rId74"/>
-    <hyperlink ref="G29" r:id="rId75"/>
-    <hyperlink ref="G30" r:id="rId76"/>
-    <hyperlink ref="G6" r:id="rId77"/>
-    <hyperlink ref="G11" r:id="rId78"/>
-    <hyperlink ref="G12:G15" r:id="rId79" display="https://drive.google.com/file/d/1C7kmUa6NGA_Hll3BWwG3baPtAag59fUI/view?usp=sharing"/>
-    <hyperlink ref="G18" r:id="rId80"/>
-    <hyperlink ref="G19" r:id="rId81"/>
-    <hyperlink ref="G23" r:id="rId82"/>
-    <hyperlink ref="G27" r:id="rId83"/>
+    <hyperlink ref="G4" r:id="rId59"/>
+    <hyperlink ref="G5" r:id="rId60"/>
+    <hyperlink ref="G7" r:id="rId61"/>
+    <hyperlink ref="G8" r:id="rId62"/>
+    <hyperlink ref="G9" r:id="rId63"/>
+    <hyperlink ref="G10" r:id="rId64"/>
+    <hyperlink ref="G16" r:id="rId65"/>
+    <hyperlink ref="G17" r:id="rId66"/>
+    <hyperlink ref="G20" r:id="rId67"/>
+    <hyperlink ref="G21" r:id="rId68"/>
+    <hyperlink ref="G22" r:id="rId69"/>
+    <hyperlink ref="G24" r:id="rId70"/>
+    <hyperlink ref="G25" r:id="rId71"/>
+    <hyperlink ref="G28" r:id="rId72"/>
+    <hyperlink ref="G29" r:id="rId73"/>
+    <hyperlink ref="G30" r:id="rId74"/>
+    <hyperlink ref="G6" r:id="rId75"/>
+    <hyperlink ref="G11" r:id="rId76"/>
+    <hyperlink ref="G12:G15" r:id="rId77" display="https://drive.google.com/file/d/1C7kmUa6NGA_Hll3BWwG3baPtAag59fUI/view?usp=sharing"/>
+    <hyperlink ref="G18" r:id="rId78"/>
+    <hyperlink ref="G19" r:id="rId79"/>
+    <hyperlink ref="G23" r:id="rId80"/>
+    <hyperlink ref="G27" r:id="rId81"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId84"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId82"/>
 </worksheet>
 </file>
--- a/spAts members details.xlsx
+++ b/spAts members details.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="231">
   <si>
     <t>Name</t>
   </si>
@@ -576,9 +576,6 @@
     <t>https://www.linkedin.com/in/varun-l-798a55118/</t>
   </si>
   <si>
-    <t>vedica gupta</t>
-  </si>
-  <si>
     <t>vedicagupta01@gmail.com</t>
   </si>
   <si>
@@ -654,9 +651,6 @@
     <t>Exploration Geophysics</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1sJvO4OUEO8DE8Xfp_yXbXsCyL4mlbTM3/view?usp=drivesdk</t>
-  </si>
-  <si>
     <t>Industrial and Systems Engineering/ Financial Engineering</t>
   </si>
   <si>
@@ -682,6 +676,39 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1M7D49zgPw-YU109Mrq3Nwv-qZyYk1yMR/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1QuUC7hLudHEmvdE-lG9yyUzLm1kzc4MQ/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>suryadeep</t>
+  </si>
+  <si>
+    <t>varun</t>
+  </si>
+  <si>
+    <t>siona</t>
+  </si>
+  <si>
+    <t>jerath</t>
+  </si>
+  <si>
+    <t>Shashwat Shukla</t>
+  </si>
+  <si>
+    <t>shashwatshukla.nssc@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/profile.php?id=100008417324086</t>
+  </si>
+  <si>
+    <t>linkedin.com/in/shashwat-shukla-4a6a10198</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1kxQ4kU12FkF-eZlYSGL5qYW2YQW4YT7o/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Vedica Gupta</t>
   </si>
 </sst>
 </file>
@@ -731,7 +758,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -741,12 +768,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,7 +800,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -803,9 +824,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1199,7 +1217,7 @@
         <v>20</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
@@ -1225,7 +1243,7 @@
         <v>26</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
@@ -1248,7 +1266,7 @@
         <v>31</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
@@ -1274,7 +1292,7 @@
         <v>37</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
@@ -1300,7 +1318,7 @@
         <v>43</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
@@ -1375,7 +1393,7 @@
         <v>61</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
@@ -1401,7 +1419,7 @@
         <v>66</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
@@ -1427,7 +1445,7 @@
         <v>72</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -1472,8 +1490,8 @@
   <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1573,7 +1591,7 @@
       <c r="Z2" s="6"/>
       <c r="AA2" s="6"/>
     </row>
-    <row r="3" spans="1:27" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>78</v>
       </c>
@@ -1593,10 +1611,14 @@
         <v>81</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="6"/>
+        <v>218</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>224</v>
+      </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
@@ -1636,7 +1658,7 @@
         <v>85</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -1677,7 +1699,7 @@
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -1719,9 +1741,7 @@
       <c r="F6" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>195</v>
-      </c>
+      <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -1763,7 +1783,7 @@
         <v>97</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -1786,7 +1806,7 @@
       <c r="Z7" s="6"/>
       <c r="AA7" s="6"/>
     </row>
-    <row r="8" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>99</v>
       </c>
@@ -1806,10 +1826,14 @@
         <v>102</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="6"/>
+        <v>217</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>223</v>
+      </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
@@ -1831,25 +1855,25 @@
     </row>
     <row r="9" spans="1:27" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>103</v>
+        <v>195</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>104</v>
+      <c r="C9" s="6" t="s">
+        <v>196</v>
       </c>
       <c r="D9" s="7">
-        <v>9030991777</v>
+        <v>9961751470</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>105</v>
+        <v>197</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>106</v>
+        <v>198</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>107</v>
+        <v>199</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -1872,27 +1896,27 @@
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
     </row>
-    <row r="10" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>109</v>
+        <v>9</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="D10" s="7">
-        <v>8590409920</v>
+        <v>9030991777</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>112</v>
+        <v>106</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -1917,25 +1941,25 @@
     </row>
     <row r="11" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D11" s="7">
-        <v>7076195222</v>
+        <v>8590409920</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>195</v>
+        <v>111</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>112</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -1960,26 +1984,24 @@
     </row>
     <row r="12" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D12" s="7">
-        <v>9550198600</v>
+        <v>7076195222</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>195</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -2003,26 +2025,24 @@
     </row>
     <row r="13" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D13" s="7">
-        <v>7034877530</v>
+        <v>9550198600</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>195</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -2046,24 +2066,24 @@
     </row>
     <row r="14" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B14" s="6"/>
+        <v>123</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>127</v>
+      </c>
       <c r="C14" s="6" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D14" s="7">
-        <v>6381729525</v>
+        <v>7034877530</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>195</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -2087,26 +2107,22 @@
     </row>
     <row r="15" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>136</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="B15" s="6"/>
       <c r="C15" s="6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D15" s="7">
-        <v>8462890029</v>
+        <v>6381729525</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>195</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -2128,28 +2144,26 @@
       <c r="Z15" s="6"/>
       <c r="AA15" s="6"/>
     </row>
-    <row r="16" spans="1:27" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>208</v>
+        <v>133</v>
       </c>
       <c r="D16" s="7">
-        <v>9390180656</v>
+        <v>8462890029</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>140</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
@@ -2173,25 +2187,25 @@
     </row>
     <row r="17" spans="1:27" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>145</v>
+        <v>206</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>142</v>
+        <v>207</v>
       </c>
       <c r="D17" s="7">
-        <v>8368297396</v>
+        <v>9390180656</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -2216,25 +2230,25 @@
     </row>
     <row r="18" spans="1:27" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>58</v>
+        <v>145</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D18" s="7">
-        <v>7584837111</v>
+        <v>8368297396</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>195</v>
+        <v>144</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -2259,26 +2273,24 @@
     </row>
     <row r="19" spans="1:27" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>153</v>
+        <v>148</v>
+      </c>
+      <c r="D19" s="7">
+        <v>7584837111</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>195</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
@@ -2302,26 +2314,24 @@
     </row>
     <row r="20" spans="1:27" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>207</v>
+        <v>39</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D20" s="7">
-        <v>9693468208</v>
+        <v>152</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>153</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>159</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -2343,27 +2353,27 @@
       <c r="Z20" s="6"/>
       <c r="AA20" s="6"/>
     </row>
-    <row r="21" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D21" s="7">
-        <v>9284029278</v>
+        <v>9693468208</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>163</v>
+        <v>208</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>210</v>
+        <v>159</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
@@ -2386,30 +2396,34 @@
       <c r="Z21" s="6"/>
       <c r="AA21" s="6"/>
     </row>
-    <row r="22" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>165</v>
+        <v>225</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>166</v>
+        <v>226</v>
       </c>
       <c r="D22" s="7">
-        <v>8698792882</v>
+        <v>7479216228</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>167</v>
+        <v>227</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>168</v>
+        <v>228</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="H22" s="12"/>
-      <c r="I22" s="6"/>
+        <v>229</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>221</v>
+      </c>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
@@ -2431,25 +2445,25 @@
     </row>
     <row r="23" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>211</v>
+        <v>164</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D23" s="7">
-        <v>7479175747</v>
+        <v>9284029278</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>195</v>
+        <v>163</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>209</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
@@ -2472,30 +2486,34 @@
       <c r="Z23" s="6"/>
       <c r="AA23" s="6"/>
     </row>
-    <row r="24" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" ht="90" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>86</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D24" s="7">
-        <v>9352025031</v>
+        <v>8698792882</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+        <v>216</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>173</v>
+      </c>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
@@ -2515,28 +2533,26 @@
       <c r="Z24" s="6"/>
       <c r="AA24" s="6"/>
     </row>
-    <row r="25" spans="1:27" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D25" s="7">
-        <v>9150660724</v>
+        <v>7479175747</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>181</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
@@ -2558,30 +2574,34 @@
       <c r="Z25" s="6"/>
       <c r="AA25" s="6"/>
     </row>
-    <row r="26" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>214</v>
+        <v>86</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D26" s="7">
-        <v>7479221800</v>
+        <v>9352025031</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="H26" s="12"/>
-      <c r="I26" s="6"/>
+        <v>176</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>222</v>
+      </c>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
@@ -2601,27 +2621,27 @@
       <c r="Z26" s="6"/>
       <c r="AA26" s="6"/>
     </row>
-    <row r="27" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D27" s="7">
-        <v>7580874791</v>
+        <v>9150660724</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>195</v>
+        <v>180</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>181</v>
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
@@ -2646,25 +2666,25 @@
     </row>
     <row r="28" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>39</v>
+        <v>212</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D28" s="7">
-        <v>8490082541</v>
+        <v>7479221800</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -2689,26 +2709,24 @@
     </row>
     <row r="29" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>196</v>
+        <v>230</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>9</v>
+        <v>213</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D29" s="7">
-        <v>9961751470</v>
+        <v>7580874791</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>200</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
@@ -2732,25 +2750,25 @@
     </row>
     <row r="30" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="D30" s="7">
-        <v>9672030996</v>
+        <v>8490082541</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
@@ -2774,13 +2792,27 @@
       <c r="AA30" s="6"/>
     </row>
     <row r="31" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
+      <c r="A31" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D31" s="7">
+        <v>9672030996</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>204</v>
+      </c>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
@@ -30905,89 +30937,88 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="F2" r:id="rId2"/>
-    <hyperlink ref="E3" r:id="rId3"/>
-    <hyperlink ref="F3" r:id="rId4"/>
-    <hyperlink ref="E4" r:id="rId5"/>
-    <hyperlink ref="F4" r:id="rId6"/>
-    <hyperlink ref="E5" r:id="rId7"/>
-    <hyperlink ref="E6" r:id="rId8"/>
-    <hyperlink ref="F6" r:id="rId9"/>
-    <hyperlink ref="E7" r:id="rId10"/>
-    <hyperlink ref="F7" r:id="rId11"/>
-    <hyperlink ref="E8" r:id="rId12"/>
-    <hyperlink ref="F8" r:id="rId13"/>
-    <hyperlink ref="E9" r:id="rId14"/>
-    <hyperlink ref="F9" r:id="rId15"/>
-    <hyperlink ref="E10" r:id="rId16"/>
-    <hyperlink ref="F10" r:id="rId17"/>
-    <hyperlink ref="E11" r:id="rId18"/>
-    <hyperlink ref="F11" r:id="rId19"/>
-    <hyperlink ref="E12" r:id="rId20"/>
-    <hyperlink ref="F12" r:id="rId21"/>
-    <hyperlink ref="E13" r:id="rId22"/>
-    <hyperlink ref="F13" r:id="rId23"/>
-    <hyperlink ref="E14" r:id="rId24"/>
-    <hyperlink ref="F14" r:id="rId25"/>
-    <hyperlink ref="E15" r:id="rId26"/>
-    <hyperlink ref="F15" r:id="rId27"/>
-    <hyperlink ref="E16" r:id="rId28"/>
-    <hyperlink ref="F16" r:id="rId29"/>
-    <hyperlink ref="E17" r:id="rId30"/>
-    <hyperlink ref="F17" r:id="rId31"/>
-    <hyperlink ref="E18" r:id="rId32"/>
-    <hyperlink ref="F18" r:id="rId33"/>
-    <hyperlink ref="E19" r:id="rId34"/>
-    <hyperlink ref="F19" r:id="rId35"/>
-    <hyperlink ref="E20" r:id="rId36"/>
-    <hyperlink ref="F20" r:id="rId37"/>
-    <hyperlink ref="E21" r:id="rId38"/>
-    <hyperlink ref="F21" r:id="rId39"/>
-    <hyperlink ref="E22" r:id="rId40"/>
-    <hyperlink ref="F22" r:id="rId41"/>
-    <hyperlink ref="E23" r:id="rId42"/>
-    <hyperlink ref="F23" r:id="rId43"/>
-    <hyperlink ref="E24" r:id="rId44"/>
-    <hyperlink ref="F24" r:id="rId45"/>
-    <hyperlink ref="E25" r:id="rId46"/>
-    <hyperlink ref="F25" r:id="rId47"/>
-    <hyperlink ref="E26" r:id="rId48"/>
-    <hyperlink ref="F26" r:id="rId49"/>
-    <hyperlink ref="E27" r:id="rId50"/>
-    <hyperlink ref="F27" r:id="rId51"/>
-    <hyperlink ref="E28" r:id="rId52"/>
-    <hyperlink ref="F28" r:id="rId53"/>
-    <hyperlink ref="E29" r:id="rId54"/>
-    <hyperlink ref="F29" r:id="rId55"/>
-    <hyperlink ref="E30" r:id="rId56"/>
-    <hyperlink ref="F30" r:id="rId57"/>
-    <hyperlink ref="G2" r:id="rId58"/>
-    <hyperlink ref="G4" r:id="rId59"/>
-    <hyperlink ref="G5" r:id="rId60"/>
-    <hyperlink ref="G7" r:id="rId61"/>
-    <hyperlink ref="G8" r:id="rId62"/>
-    <hyperlink ref="G9" r:id="rId63"/>
-    <hyperlink ref="G10" r:id="rId64"/>
-    <hyperlink ref="G16" r:id="rId65"/>
-    <hyperlink ref="G17" r:id="rId66"/>
-    <hyperlink ref="G20" r:id="rId67"/>
-    <hyperlink ref="G21" r:id="rId68"/>
-    <hyperlink ref="G22" r:id="rId69"/>
-    <hyperlink ref="G24" r:id="rId70"/>
-    <hyperlink ref="G25" r:id="rId71"/>
-    <hyperlink ref="G28" r:id="rId72"/>
-    <hyperlink ref="G29" r:id="rId73"/>
+    <hyperlink ref="H22" r:id="rId1"/>
+    <hyperlink ref="H26" r:id="rId2"/>
+    <hyperlink ref="H8" r:id="rId3"/>
+    <hyperlink ref="E2" r:id="rId4"/>
+    <hyperlink ref="F2" r:id="rId5"/>
+    <hyperlink ref="G2" r:id="rId6"/>
+    <hyperlink ref="E3" r:id="rId7"/>
+    <hyperlink ref="F3" r:id="rId8"/>
+    <hyperlink ref="E4" r:id="rId9"/>
+    <hyperlink ref="F4" r:id="rId10"/>
+    <hyperlink ref="G4" r:id="rId11"/>
+    <hyperlink ref="E5" r:id="rId12"/>
+    <hyperlink ref="G5" r:id="rId13"/>
+    <hyperlink ref="E6" r:id="rId14"/>
+    <hyperlink ref="F6" r:id="rId15"/>
+    <hyperlink ref="E7" r:id="rId16"/>
+    <hyperlink ref="F7" r:id="rId17"/>
+    <hyperlink ref="G7" r:id="rId18"/>
+    <hyperlink ref="E8" r:id="rId19"/>
+    <hyperlink ref="F8" r:id="rId20"/>
+    <hyperlink ref="E9" r:id="rId21"/>
+    <hyperlink ref="F9" r:id="rId22"/>
+    <hyperlink ref="G9" r:id="rId23"/>
+    <hyperlink ref="E10" r:id="rId24"/>
+    <hyperlink ref="F10" r:id="rId25"/>
+    <hyperlink ref="G10" r:id="rId26"/>
+    <hyperlink ref="E11" r:id="rId27"/>
+    <hyperlink ref="F11" r:id="rId28"/>
+    <hyperlink ref="G11" r:id="rId29"/>
+    <hyperlink ref="E12" r:id="rId30"/>
+    <hyperlink ref="F12" r:id="rId31"/>
+    <hyperlink ref="E13" r:id="rId32"/>
+    <hyperlink ref="F13" r:id="rId33"/>
+    <hyperlink ref="E14" r:id="rId34"/>
+    <hyperlink ref="F14" r:id="rId35"/>
+    <hyperlink ref="E15" r:id="rId36"/>
+    <hyperlink ref="F15" r:id="rId37"/>
+    <hyperlink ref="E16" r:id="rId38"/>
+    <hyperlink ref="F16" r:id="rId39"/>
+    <hyperlink ref="E17" r:id="rId40"/>
+    <hyperlink ref="F17" r:id="rId41"/>
+    <hyperlink ref="G17" r:id="rId42"/>
+    <hyperlink ref="E18" r:id="rId43"/>
+    <hyperlink ref="F18" r:id="rId44"/>
+    <hyperlink ref="G18" r:id="rId45"/>
+    <hyperlink ref="E19" r:id="rId46"/>
+    <hyperlink ref="F19" r:id="rId47"/>
+    <hyperlink ref="E20" r:id="rId48"/>
+    <hyperlink ref="F20" r:id="rId49"/>
+    <hyperlink ref="E21" r:id="rId50"/>
+    <hyperlink ref="F21" r:id="rId51"/>
+    <hyperlink ref="G21" r:id="rId52"/>
+    <hyperlink ref="E22" r:id="rId53"/>
+    <hyperlink ref="F22" r:id="rId54" display="http://linkedin.com/in/shashwat-shukla-4a6a10198"/>
+    <hyperlink ref="G22" r:id="rId55"/>
+    <hyperlink ref="E23" r:id="rId56"/>
+    <hyperlink ref="F23" r:id="rId57"/>
+    <hyperlink ref="G23" r:id="rId58"/>
+    <hyperlink ref="E24" r:id="rId59"/>
+    <hyperlink ref="F24" r:id="rId60"/>
+    <hyperlink ref="E25" r:id="rId61"/>
+    <hyperlink ref="F25" r:id="rId62"/>
+    <hyperlink ref="E26" r:id="rId63"/>
+    <hyperlink ref="F26" r:id="rId64"/>
+    <hyperlink ref="E27" r:id="rId65"/>
+    <hyperlink ref="F27" r:id="rId66"/>
+    <hyperlink ref="G27" r:id="rId67"/>
+    <hyperlink ref="E28" r:id="rId68"/>
+    <hyperlink ref="F28" r:id="rId69"/>
+    <hyperlink ref="E29" r:id="rId70"/>
+    <hyperlink ref="F29" r:id="rId71"/>
+    <hyperlink ref="E30" r:id="rId72"/>
+    <hyperlink ref="F30" r:id="rId73"/>
     <hyperlink ref="G30" r:id="rId74"/>
-    <hyperlink ref="G6" r:id="rId75"/>
-    <hyperlink ref="G11" r:id="rId76"/>
-    <hyperlink ref="G12:G15" r:id="rId77" display="https://drive.google.com/file/d/1C7kmUa6NGA_Hll3BWwG3baPtAag59fUI/view?usp=sharing"/>
-    <hyperlink ref="G18" r:id="rId78"/>
-    <hyperlink ref="G19" r:id="rId79"/>
-    <hyperlink ref="G23" r:id="rId80"/>
-    <hyperlink ref="G27" r:id="rId81"/>
+    <hyperlink ref="E31" r:id="rId75"/>
+    <hyperlink ref="F31" r:id="rId76"/>
+    <hyperlink ref="G31" r:id="rId77"/>
+    <hyperlink ref="G8" r:id="rId78"/>
+    <hyperlink ref="G24" r:id="rId79"/>
+    <hyperlink ref="G28" r:id="rId80"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId82"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId81"/>
 </worksheet>
 </file>